--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B9DDD-974F-453F-9702-712F1C3CEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78EAC38-F552-41BC-8F14-3C767DFE118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
     <sheet name="Prerequisiti" sheetId="2" r:id="rId2"/>
     <sheet name="TestCases" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="6" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$51</definedName>
     <definedName name="filtro" localSheetId="2">TestCases!$A$9:$S$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -45,7 +46,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAs7-M85A
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="281">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -115,7 +116,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Obiettivo</t>
     </r>
@@ -124,7 +125,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
     </r>
@@ -134,7 +135,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>client</t>
     </r>
@@ -143,7 +144,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
     </r>
@@ -170,7 +171,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali HL7 - http://www.hl7italia.it/hl7italia_D7/node/2359 e coerentemente ai casi di test descritti.</t>
     </r>
@@ -179,7 +180,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -465,9 +466,6 @@
   </si>
   <si>
     <t>subject_application_vendor: POLIS-NET SRL</t>
-  </si>
-  <si>
-    <t>subject_application_version: 0.5.8</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT1</t>
@@ -512,6 +510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -520,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
@@ -532,6 +532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -540,6 +541,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -557,6 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -565,6 +568,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
@@ -577,6 +581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -585,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -969,6 +975,257 @@
   <si>
     <t>POLIS-NET SRL</t>
   </si>
+  <si>
+    <t>e1d12748dcc8a3c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.880c9c99bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-23T16:53:40Z</t>
+  </si>
+  <si>
+    <t>2023-06-26T17:51:40Z</t>
+  </si>
+  <si>
+    <t>eadbe6c86d4a3a7b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.fba176cec5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T11:31:10Z</t>
+  </si>
+  <si>
+    <t>cd25a03c2c0c7a19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.8f04798be6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e67fa6947a19285</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.84bc5e90d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T11:38:22Z</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
+  </si>
+  <si>
+    <t>&lt;span style="font-weight: bold;text-decoration: underline;font-family: Calibri;font-size: 15px;color: #000000;"&gt;Precondizioni:&lt;/span&gt;&lt;span style="font-family: Calibri;font-size: 15px;color: #000000;"&gt;_x000D_
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido._x000D_
+_x000D_
+&lt;/span&gt;&lt;span style="font-weight: bold;text-decoration: underline;font-family: Calibri;font-size: 15px;color: #000000;"&gt;Descrizione di Business del caso di test: &lt;/span&gt;&lt;span style="font-family: Calibri;font-size: 15px;color: #000000;"&gt;_x000D_
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway._x000D_
+_x000D_
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>4/18/2023</t>
+  </si>
+  <si>
+    <t>2023-04-18T15:19:11Z</t>
+  </si>
+  <si>
+    <t>3e41c3314382acb7</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Errorre in validazione documento. Contattare assistenza</t>
+  </si>
+  <si>
+    <t>sistemazione configurazioni sul cliente per valorizzare correttamente il campo errato. Utente procederà alla ri-validazione, firma e pubblicazione recuperando da una lista di documenti ancora da validare</t>
+  </si>
+  <si>
+    <t>2023-06-27T11:48:12Z</t>
+  </si>
+  <si>
+    <t>80d6d925791ff99d</t>
+  </si>
+  <si>
+    <t>ERRORE DI VALIDAZIONE DOCUMENTO. CONTATTARE ASSISTENZA</t>
+  </si>
+  <si>
+    <t>2023-06-27T13:00:45Z</t>
+  </si>
+  <si>
+    <t>3c51e15463ace3db</t>
+  </si>
+  <si>
+    <t>ERRORE: TIMEOUT DEL SERVIZIO DI VALIDAZIONE. RIPROVARE PIU' TARDI O CONTATTARE L'ASSISTENZA</t>
+  </si>
+  <si>
+    <t>ERRORE DI VALIDAZIONE DOCUMENTO. CONTATTARE L'ASSISTENZA</t>
+  </si>
+  <si>
+    <t>2023-06-27T13:12:50Z</t>
+  </si>
+  <si>
+    <t>dedf69c7d7e8b4d8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.d4e59609c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f2a15d0b67828259</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.48c97058ad08e0da4e0e91d48e03ace0b5fb3722a54e2b97cee1df52a40ae234.0c485d3a12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_version: v1.1.0</t>
+  </si>
+  <si>
+    <t>Come da specifiche ed esempi riportati su repository fse-support, il campo della residenza non è obbligatorio e per tanto non applicato alla CDA generata</t>
+  </si>
+  <si>
+    <t>2023-06-27T15:30:24Z</t>
+  </si>
+  <si>
+    <t>2023-06-27T15:37:15Z</t>
+  </si>
+  <si>
+    <t>c48ea3c9196ea65e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.680d8178e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a658cac5248996ef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.8bbe696308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T15:47:15Z</t>
+  </si>
+  <si>
+    <t>2023-06-27T15:54:18Z</t>
+  </si>
+  <si>
+    <t>8003bc5a3404c9fe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.d1bbc60368^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T16:01:34Z</t>
+  </si>
+  <si>
+    <t>abb7bec3ea95f0fe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.9757cac0d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Correzione configurazione da parte di tecnici backoffice. L'utente procederà a seguito correzione a rivalidare, firmare e pubblicare il documento da lista pazienti dimessi che riporterà la possibilità di effettuare l'operazione per la Lettera di Dimissione Ospedaliera</t>
+  </si>
+  <si>
+    <t>Correzione dati da parte di tecnici backoffice. L'utente procederà a seguito correzione a rivalidare, firmare e pubblicare il documento da lista pazienti dimessi che riporterà la possibilità di effettuare l'operazione per la Lettera di Dimissione Ospedaliera</t>
+  </si>
+  <si>
+    <t>2023-06-27T16:01:45Z</t>
+  </si>
+  <si>
+    <t>f9f8707eb907a2ff</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.5eade76fcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T16:19:25Z</t>
+  </si>
+  <si>
+    <t>a93023d75f6d40f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.bb4ae6cfac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T16:26:10Z</t>
+  </si>
+  <si>
+    <t>07f204d2eb76c323</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.aab02ba165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T17:32:14Z</t>
+  </si>
+  <si>
+    <t>1de1db369cf76009</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.14c920cab4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3e5026cf365ee64d</t>
+  </si>
+  <si>
+    <t>2023-06-27T17:36:06Z</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ERRORE DI PUBBLICAZIONE DOCUMENTO. CONTATTARE L'ASSISTENZA</t>
+  </si>
+  <si>
+    <t>Analisi e correzione da parte di tecnici backoffice dell'errore che ha invalidato la pubblicazione. L'utente procederà a seguito correzione a rivalidare, firmare e pubblicare il documento da lista pazienti dimessi che riporterà la possibilità di effettuare l'operazione per la Lettera di Dimissione Ospedaliera</t>
+  </si>
+  <si>
+    <t>31398934366309ec</t>
+  </si>
+  <si>
+    <t>2023-06-27T17:45:35Z</t>
+  </si>
+  <si>
+    <t>2023-06-27T17:47:35Z</t>
+  </si>
+  <si>
+    <t>Pur utilizzando lo stesso file con lo stesso JWT e lo stesso identificativoDoc il servizio di pubblicazione non restituisce errore ma si ottiene la seguente response in stato 201 : {
+  "traceID": "bd4f5b5fc80e8613",
+  "spanID": "bd4f5b5fc80e8613",
+  "warning": "",
+  "workflowInstanceId": "2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.eed4ffc3c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
+}</t>
+  </si>
+  <si>
+    <t>e8d5c2ed24f37714</t>
+  </si>
+  <si>
+    <t>2023-06-27T17:51:40Z</t>
+  </si>
+  <si>
+    <t>2023-06-27T18:02:29Z</t>
+  </si>
+  <si>
+    <t>4a81f5de48148536</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.48af7c2c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>La riservatezza del documento non viene definita dall'utente e quindi l'errore non può essere riprodotto</t>
+  </si>
+  <si>
+    <t>2023-06-28T12:28:37Z</t>
+  </si>
+  <si>
+    <t>dc22a02a057f3974</t>
+  </si>
+  <si>
+    <t>2023-06-28T12:33:30Z</t>
+  </si>
+  <si>
+    <t>9e44fbddb1c83b9c</t>
+  </si>
 </sst>
 </file>
 
@@ -977,7 +1234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -989,39 +1246,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1029,9 +1287,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1318,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1227,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,6 +1604,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,6 +1653,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1503,6 +1847,222 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="24145875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CBBE3A-4930-9473-5C4E-CEF667B3DC5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="24145875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD05BBFF-1B97-E909-9EF0-4F6B274703E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="24298275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB1C9F4-991C-08E6-86E1-F587EF3F2D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="24298275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770FE7EB-D5F9-43EF-9D24-2D3414C7FFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2044,10 +2604,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD51"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,9 +2615,9 @@
     <col min="1" max="1" width="11.42578125"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
     <col min="9" max="9" width="33.140625" customWidth="1"/>
@@ -2090,14 +2650,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2115,14 +2675,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2140,12 +2700,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2164,12 +2724,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="38"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2187,8 +2747,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="1"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -2243,7 +2803,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="1:20" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -2316,16 +2876,26 @@
         <v>55</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="F10" s="28">
+        <v>45100</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -2350,16 +2920,26 @@
         <v>55</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="F11" s="28">
+        <v>45103</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -2384,16 +2964,26 @@
         <v>55</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="F12" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -2418,16 +3008,26 @@
         <v>55</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="F13" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -2452,22 +3052,42 @@
         <v>55</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="F14" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="L14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
       <c r="S14" s="32"/>
@@ -2475,7 +3095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>37</v>
       </c>
@@ -2486,22 +3106,42 @@
         <v>55</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="F15" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="L15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="31"/>
       <c r="S15" s="32"/>
@@ -2520,21 +3160,31 @@
         <v>55</v>
       </c>
       <c r="D16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>125</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="L16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="31" t="s">
@@ -2545,7 +3195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>63</v>
       </c>
@@ -2556,22 +3206,42 @@
         <v>55</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="F17" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="31"/>
       <c r="S17" s="32"/>
@@ -2579,7 +3249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>64</v>
       </c>
@@ -2590,22 +3260,42 @@
         <v>55</v>
       </c>
       <c r="D18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="F18" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="L18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="31"/>
       <c r="S18" s="32"/>
@@ -2613,41 +3303,53 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+    <row r="19" spans="1:20" s="60" customFormat="1" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51">
         <v>65</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33" t="s">
+      <c r="F19" s="54">
+        <v>45105</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>66</v>
       </c>
@@ -2658,17 +3360,23 @@
         <v>55</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>45104</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
@@ -2681,7 +3389,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>67</v>
       </c>
@@ -2692,22 +3400,42 @@
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="F21" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="L21" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="Q21" s="30"/>
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
@@ -2715,7 +3443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>68</v>
       </c>
@@ -2726,22 +3454,42 @@
         <v>55</v>
       </c>
       <c r="D22" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="F22" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
+      <c r="L22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
@@ -2749,7 +3497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>69</v>
       </c>
@@ -2760,22 +3508,42 @@
         <v>55</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="F23" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
+      <c r="L23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
@@ -2783,7 +3551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>70</v>
       </c>
@@ -2794,22 +3562,42 @@
         <v>55</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="F24" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
+      <c r="L24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q24" s="30"/>
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
@@ -2817,7 +3605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>71</v>
       </c>
@@ -2828,22 +3616,42 @@
         <v>55</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="F25" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
@@ -2851,7 +3659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>72</v>
       </c>
@@ -2862,22 +3670,42 @@
         <v>55</v>
       </c>
       <c r="D26" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="F26" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="L26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
@@ -2885,7 +3713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>73</v>
       </c>
@@ -2896,22 +3724,42 @@
         <v>55</v>
       </c>
       <c r="D27" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="F27" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
+      <c r="L27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q27" s="30"/>
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
@@ -2919,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>74</v>
       </c>
@@ -2930,22 +3778,42 @@
         <v>55</v>
       </c>
       <c r="D28" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="F28" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
+      <c r="L28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
@@ -2953,27 +3821,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>208</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+      <c r="F29" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -2987,21 +3865,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>209</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -3021,21 +3899,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="390.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="405.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>210</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>158</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
@@ -3055,21 +3933,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>211</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
@@ -3089,21 +3967,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>212</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>164</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
@@ -3123,33 +4001,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="383.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>213</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
+      <c r="F34" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
+      <c r="L34" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>266</v>
+      </c>
       <c r="Q34" s="30"/>
       <c r="R34" s="31"/>
       <c r="S34" s="32"/>
@@ -3157,33 +4055,53 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>214</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="F35" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="L35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>266</v>
+      </c>
       <c r="Q35" s="30"/>
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
@@ -3196,23 +4114,31 @@
         <v>215</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>269</v>
+      </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="J36" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>270</v>
+      </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
@@ -3225,32 +4151,48 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>216</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="F37" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>271</v>
+      </c>
       <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
+      <c r="L37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
@@ -3259,123 +4201,123 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+    <row r="38" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35">
         <v>217</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35">
+        <v>218</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="33" t="s">
+      <c r="E39" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
-        <v>218</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="26" t="s">
+    <row r="40" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
+        <v>219</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="27" t="s">
+      <c r="D40" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="33" t="s">
+      <c r="E40" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
-        <v>219</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>220</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>180</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -3395,21 +4337,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>221</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>181</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>182</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -3429,21 +4371,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="390.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>222</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
@@ -3463,21 +4405,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>223</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>186</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -3502,28 +4444,48 @@
         <v>324</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
+      <c r="F45" s="28">
+        <v>45105</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
+      <c r="L45" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>266</v>
+      </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
       <c r="S45" s="32"/>
@@ -3536,28 +4498,48 @@
         <v>325</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
+      <c r="F46" s="28">
+        <v>45105</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="L46" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>266</v>
+      </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
@@ -3565,21 +4547,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="390.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>326</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>192</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
@@ -3599,21 +4581,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>327</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
@@ -3633,21 +4615,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>354</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
@@ -3667,21 +4649,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="330.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>355</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="29"/>
@@ -3712,16 +4694,26 @@
         <v>55</v>
       </c>
       <c r="D51" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
+      <c r="F51" s="28">
+        <v>45104</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
@@ -11819,7 +12811,13 @@
       <c r="T580" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T29" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A9:T51" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PUBBLICAZIONE_CREAZIONE"/>
+        <filter val="VALIDAZIONE"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="CERT_VAC"/>
@@ -11843,13 +12841,89 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07BA3EF-0883-433D-A70B-135FFC12063D}">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="L1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="360" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -12576,7 +13650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78EAC38-F552-41BC-8F14-3C767DFE118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4E84A-E3F0-4AB8-8FEF-A1526BCC582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="282">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>9e44fbddb1c83b9c</t>
+  </si>
+  <si>
+    <t>L'applicativo ripete la chiamata al servizio di validazione ad intervalli regolari finchè non riceve lo status 201 come risposta.</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,34 +1656,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2087,6 +2062,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2B5BB1-1EB6-61D8-212E-248D1F38C119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2604,10 +2633,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,7 +3124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>37</v>
       </c>
@@ -3185,7 +3214,9 @@
       <c r="O16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="30"/>
+      <c r="P16" s="30" t="s">
+        <v>281</v>
+      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="31" t="s">
         <v>46</v>
@@ -3195,7 +3226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>63</v>
       </c>
@@ -3249,7 +3280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>64</v>
       </c>
@@ -3303,53 +3334,45 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="60" customFormat="1" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+    <row r="19" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>65</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="54">
-        <v>45105</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="J19" s="56" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="59" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>66</v>
       </c>
@@ -3365,9 +3388,7 @@
       <c r="E20" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="28">
-        <v>45104</v>
-      </c>
+      <c r="F20" s="28"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -3389,7 +3410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>67</v>
       </c>
@@ -3443,7 +3464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>68</v>
       </c>
@@ -3497,7 +3518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>69</v>
       </c>
@@ -3551,7 +3572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>70</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>71</v>
       </c>
@@ -3767,7 +3788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>74</v>
       </c>
@@ -3821,7 +3842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>208</v>
       </c>
@@ -3899,7 +3920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="405.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="390.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>210</v>
       </c>
@@ -3967,7 +3988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="405.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>212</v>
       </c>
@@ -4055,7 +4076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>214</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>216</v>
       </c>
@@ -4337,7 +4358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>221</v>
       </c>
@@ -4371,7 +4392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="390.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>222</v>
       </c>
@@ -4405,7 +4426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>223</v>
       </c>
@@ -4547,7 +4568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="390.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="375.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>326</v>
       </c>
@@ -4581,7 +4602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="345.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>327</v>
       </c>
@@ -4615,7 +4636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="345.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>354</v>
       </c>
@@ -4649,7 +4670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="330.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="315.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>355</v>
       </c>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4E84A-E3F0-4AB8-8FEF-A1526BCC582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B11E9-8A12-4CEE-8884-5F2AE28C77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="291">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1228,6 +1228,33 @@
   </si>
   <si>
     <t>L'applicativo ripete la chiamata al servizio di validazione ad intervalli regolari finchè non riceve lo status 201 come risposta.</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:24:40Z</t>
+  </si>
+  <si>
+    <t>c67ed7f753b1862b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0fdb7f45a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:31:40Z</t>
+  </si>
+  <si>
+    <t>21e78ef17f69c79c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6464963d8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:33:31Z</t>
+  </si>
+  <si>
+    <t>42ddaacbf188e80a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d1e1dab0e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,12 +1348,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1512,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,34 +1631,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,6 +2109,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED629B79-D92E-7AA4-1663-45E31187106F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3318858A-DC35-C344-F3F4-F2C3A7AA0E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2633,10 +2734,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,14 +2780,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2704,14 +2805,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2729,12 +2830,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2753,12 +2854,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2776,8 +2877,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3302,7 +3403,7 @@
       <c r="G18" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="35" t="s">
         <v>231</v>
       </c>
       <c r="I18" s="29" t="s">
@@ -4214,7 +4315,9 @@
       <c r="O37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="30"/>
+      <c r="P37" s="30" t="s">
+        <v>281</v>
+      </c>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
@@ -4222,105 +4325,135 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+    <row r="38" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
         <v>217</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43" t="s">
+      <c r="F38" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+    <row r="39" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>218</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43" t="s">
+      <c r="F39" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+    <row r="40" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
         <v>219</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43" t="s">
+      <c r="F40" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33" t="s">
         <v>49</v>
       </c>
     </row>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B11E9-8A12-4CEE-8884-5F2AE28C77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33246870-FB94-492B-AF2F-618428F95794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,42 +976,6 @@
     <t>POLIS-NET SRL</t>
   </si>
   <si>
-    <t>e1d12748dcc8a3c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.880c9c99bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-23T16:53:40Z</t>
-  </si>
-  <si>
-    <t>2023-06-26T17:51:40Z</t>
-  </si>
-  <si>
-    <t>eadbe6c86d4a3a7b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.fba176cec5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-27T11:31:10Z</t>
-  </si>
-  <si>
-    <t>cd25a03c2c0c7a19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.8f04798be6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0e67fa6947a19285</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.84bc5e90d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-27T11:38:22Z</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
@@ -1203,15 +1167,6 @@
     <t>2023-06-27T17:51:40Z</t>
   </si>
   <si>
-    <t>2023-06-27T18:02:29Z</t>
-  </si>
-  <si>
-    <t>4a81f5de48148536</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.48af7c2c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>La riservatezza del documento non viene definita dall'utente e quindi l'errore non può essere riprodotto</t>
   </si>
   <si>
@@ -1255,6 +1210,51 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d1e1dab0e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T10:33:12Z</t>
+  </si>
+  <si>
+    <t>c616ced99760525b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.9142d9255c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T11:04:01Z</t>
+  </si>
+  <si>
+    <t>985c06f953307a52</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.1c0c094857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>93abf6a4890959e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.c8ff0a3948^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T16:28:50Z</t>
+  </si>
+  <si>
+    <t>2023-07-07T17:36:00Z</t>
+  </si>
+  <si>
+    <t>f0b6469345aac083</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.a5ce9aa251^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T17:44:07Z</t>
+  </si>
+  <si>
+    <t>83d331826ef2a2be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.07f77f6030^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2217,6 +2217,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B71FDA-0AB5-ADC3-1521-0BB709234793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2734,10 +2788,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38:J40"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +2911,7 @@
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D5" s="40"/>
       <c r="F5" s="13"/>
@@ -3012,16 +3066,16 @@
         <v>112</v>
       </c>
       <c r="F10" s="28">
-        <v>45100</v>
+        <v>45114</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>46</v>
@@ -3056,16 +3110,16 @@
         <v>114</v>
       </c>
       <c r="F11" s="28">
-        <v>45103</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>204</v>
+        <v>45114</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>46</v>
@@ -3100,16 +3154,16 @@
         <v>116</v>
       </c>
       <c r="F12" s="28">
-        <v>45104</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>207</v>
+        <v>45114</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>46</v>
@@ -3144,16 +3198,16 @@
         <v>118</v>
       </c>
       <c r="F13" s="28">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>46</v>
@@ -3191,13 +3245,13 @@
         <v>45104</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>46</v>
@@ -3210,13 +3264,13 @@
         <v>46</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
@@ -3245,13 +3299,13 @@
         <v>45104</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>46</v>
@@ -3264,13 +3318,13 @@
         <v>46</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="31"/>
@@ -3310,13 +3364,13 @@
         <v>46</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O16" s="30" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="31" t="s">
@@ -3347,13 +3401,13 @@
         <v>45104</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>46</v>
@@ -3366,13 +3420,13 @@
         <v>46</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="31"/>
@@ -3401,13 +3455,13 @@
         <v>45104</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>46</v>
@@ -3420,13 +3474,13 @@
         <v>46</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O18" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="31"/>
@@ -3459,7 +3513,7 @@
         <v>47</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -3497,7 +3551,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3531,13 +3585,13 @@
         <v>45104</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>46</v>
@@ -3550,13 +3604,13 @@
         <v>46</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="30"/>
       <c r="R21" s="31"/>
@@ -3585,13 +3639,13 @@
         <v>45104</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>46</v>
@@ -3604,13 +3658,13 @@
         <v>46</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O22" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="31"/>
@@ -3639,13 +3693,13 @@
         <v>45104</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>46</v>
@@ -3658,13 +3712,13 @@
         <v>46</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
@@ -3693,13 +3747,13 @@
         <v>45104</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>46</v>
@@ -3712,13 +3766,13 @@
         <v>46</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q24" s="30"/>
       <c r="R24" s="31"/>
@@ -3747,13 +3801,13 @@
         <v>45104</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>46</v>
@@ -3766,13 +3820,13 @@
         <v>46</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O25" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
@@ -3801,13 +3855,13 @@
         <v>45104</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>46</v>
@@ -3820,13 +3874,13 @@
         <v>46</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="31"/>
@@ -3855,13 +3909,13 @@
         <v>45104</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>46</v>
@@ -3874,13 +3928,13 @@
         <v>46</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q27" s="30"/>
       <c r="R27" s="31"/>
@@ -3909,13 +3963,13 @@
         <v>45104</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>46</v>
@@ -3928,13 +3982,13 @@
         <v>46</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
@@ -3963,13 +4017,13 @@
         <v>45104</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>46</v>
@@ -4143,13 +4197,13 @@
         <v>45104</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>46</v>
@@ -4162,13 +4216,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O34" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="30"/>
       <c r="R34" s="31"/>
@@ -4197,13 +4251,13 @@
         <v>45104</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>46</v>
@@ -4216,13 +4270,13 @@
         <v>46</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="30"/>
       <c r="R35" s="31"/>
@@ -4251,7 +4305,7 @@
         <v>45104</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -4259,7 +4313,7 @@
         <v>47</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -4293,10 +4347,10 @@
         <v>45104</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="30" t="s">
@@ -4310,13 +4364,13 @@
         <v>46</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O37" s="30" t="s">
         <v>47</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
@@ -4345,13 +4399,13 @@
         <v>45111</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>46</v>
@@ -4389,13 +4443,13 @@
         <v>45111</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="J39" s="30" t="s">
         <v>46</v>
@@ -4433,13 +4487,13 @@
         <v>45111</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="J40" s="30" t="s">
         <v>46</v>
@@ -4613,13 +4667,13 @@
         <v>45105</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>46</v>
@@ -4632,13 +4686,13 @@
         <v>46</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O45" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
@@ -4667,13 +4721,13 @@
         <v>45105</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>46</v>
@@ -4686,13 +4740,13 @@
         <v>46</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
@@ -4854,16 +4908,16 @@
         <v>199</v>
       </c>
       <c r="F51" s="28">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>46</v>
@@ -13033,22 +13087,22 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -13060,13 +13114,13 @@
         <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O1" t="s">
         <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="T1" t="s">
         <v>49</v>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33246870-FB94-492B-AF2F-618428F95794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4E84A-E3F0-4AB8-8FEF-A1526BCC582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="282">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -976,6 +976,42 @@
     <t>POLIS-NET SRL</t>
   </si>
   <si>
+    <t>e1d12748dcc8a3c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.880c9c99bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-23T16:53:40Z</t>
+  </si>
+  <si>
+    <t>2023-06-26T17:51:40Z</t>
+  </si>
+  <si>
+    <t>eadbe6c86d4a3a7b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.fba176cec5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T11:31:10Z</t>
+  </si>
+  <si>
+    <t>cd25a03c2c0c7a19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.8f04798be6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e67fa6947a19285</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.84bc5e90d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-27T11:38:22Z</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
@@ -1167,6 +1203,15 @@
     <t>2023-06-27T17:51:40Z</t>
   </si>
   <si>
+    <t>2023-06-27T18:02:29Z</t>
+  </si>
+  <si>
+    <t>4a81f5de48148536</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.48af7c2c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>La riservatezza del documento non viene definita dall'utente e quindi l'errore non può essere riprodotto</t>
   </si>
   <si>
@@ -1183,78 +1228,6 @@
   </si>
   <si>
     <t>L'applicativo ripete la chiamata al servizio di validazione ad intervalli regolari finchè non riceve lo status 201 come risposta.</t>
-  </si>
-  <si>
-    <t>2023-07-04T18:24:40Z</t>
-  </si>
-  <si>
-    <t>c67ed7f753b1862b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0fdb7f45a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-04T18:31:40Z</t>
-  </si>
-  <si>
-    <t>21e78ef17f69c79c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6464963d8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-04T18:33:31Z</t>
-  </si>
-  <si>
-    <t>42ddaacbf188e80a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d1e1dab0e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-07T10:33:12Z</t>
-  </si>
-  <si>
-    <t>c616ced99760525b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.9142d9255c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-07T11:04:01Z</t>
-  </si>
-  <si>
-    <t>985c06f953307a52</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.1c0c094857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>93abf6a4890959e1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.c8ff0a3948^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-07T16:28:50Z</t>
-  </si>
-  <si>
-    <t>2023-07-07T17:36:00Z</t>
-  </si>
-  <si>
-    <t>f0b6469345aac083</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.a5ce9aa251^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-07T17:44:07Z</t>
-  </si>
-  <si>
-    <t>83d331826ef2a2be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.07f77f6030^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1321,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1533,7 +1512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,6 +1610,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2109,168 +2116,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED629B79-D92E-7AA4-1663-45E31187106F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10687050" cy="23917275"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3318858A-DC35-C344-F3F4-F2C3A7AA0E37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10687050" cy="23917275"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B71FDA-0AB5-ADC3-1521-0BB709234793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10687050" cy="23917275"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2788,10 +2633,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,14 +2679,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2859,14 +2704,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2884,12 +2729,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2908,12 +2753,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="40"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2931,8 +2776,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="1"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3066,16 +2911,16 @@
         <v>112</v>
       </c>
       <c r="F10" s="28">
-        <v>45114</v>
+        <v>45100</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>46</v>
@@ -3110,16 +2955,16 @@
         <v>114</v>
       </c>
       <c r="F11" s="28">
-        <v>45114</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>279</v>
+        <v>45103</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>46</v>
@@ -3154,16 +2999,16 @@
         <v>116</v>
       </c>
       <c r="F12" s="28">
-        <v>45114</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>284</v>
+        <v>45104</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>46</v>
@@ -3198,16 +3043,16 @@
         <v>118</v>
       </c>
       <c r="F13" s="28">
-        <v>45114</v>
+        <v>45104</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>46</v>
@@ -3245,13 +3090,13 @@
         <v>45104</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>46</v>
@@ -3264,13 +3109,13 @@
         <v>46</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
@@ -3299,13 +3144,13 @@
         <v>45104</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>46</v>
@@ -3318,13 +3163,13 @@
         <v>46</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="31"/>
@@ -3364,13 +3209,13 @@
         <v>46</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="O16" s="30" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="31" t="s">
@@ -3401,13 +3246,13 @@
         <v>45104</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>46</v>
@@ -3420,13 +3265,13 @@
         <v>46</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="31"/>
@@ -3455,13 +3300,13 @@
         <v>45104</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>231</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>46</v>
@@ -3474,13 +3319,13 @@
         <v>46</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O18" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="31"/>
@@ -3513,7 +3358,7 @@
         <v>47</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -3551,7 +3396,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3585,13 +3430,13 @@
         <v>45104</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>46</v>
@@ -3604,13 +3449,13 @@
         <v>46</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="30"/>
       <c r="R21" s="31"/>
@@ -3639,13 +3484,13 @@
         <v>45104</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>46</v>
@@ -3658,13 +3503,13 @@
         <v>46</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O22" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="31"/>
@@ -3693,13 +3538,13 @@
         <v>45104</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>46</v>
@@ -3712,13 +3557,13 @@
         <v>46</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
@@ -3747,13 +3592,13 @@
         <v>45104</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>46</v>
@@ -3766,13 +3611,13 @@
         <v>46</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="30"/>
       <c r="R24" s="31"/>
@@ -3801,13 +3646,13 @@
         <v>45104</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>46</v>
@@ -3820,13 +3665,13 @@
         <v>46</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O25" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
@@ -3855,13 +3700,13 @@
         <v>45104</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>46</v>
@@ -3874,13 +3719,13 @@
         <v>46</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="31"/>
@@ -3909,13 +3754,13 @@
         <v>45104</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>46</v>
@@ -3928,13 +3773,13 @@
         <v>46</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q27" s="30"/>
       <c r="R27" s="31"/>
@@ -3963,13 +3808,13 @@
         <v>45104</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>46</v>
@@ -3982,13 +3827,13 @@
         <v>46</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
@@ -4017,13 +3862,13 @@
         <v>45104</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>46</v>
@@ -4197,13 +4042,13 @@
         <v>45104</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>46</v>
@@ -4216,13 +4061,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O34" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="30"/>
       <c r="R34" s="31"/>
@@ -4251,13 +4096,13 @@
         <v>45104</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>46</v>
@@ -4270,13 +4115,13 @@
         <v>46</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="30"/>
       <c r="R35" s="31"/>
@@ -4305,7 +4150,7 @@
         <v>45104</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -4313,7 +4158,7 @@
         <v>47</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -4347,10 +4192,10 @@
         <v>45104</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="30" t="s">
@@ -4364,14 +4209,12 @@
         <v>46</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="O37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="30" t="s">
-        <v>266</v>
-      </c>
+      <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
@@ -4379,135 +4222,105 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+    <row r="38" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35">
         <v>217</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="28">
-        <v>45111</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="33" t="s">
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+    <row r="39" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35">
         <v>218</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="28">
-        <v>45111</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="33" t="s">
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+    <row r="40" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
         <v>219</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="28">
-        <v>45111</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="33" t="s">
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4667,13 +4480,13 @@
         <v>45105</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>46</v>
@@ -4686,13 +4499,13 @@
         <v>46</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O45" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
@@ -4721,13 +4534,13 @@
         <v>45105</v>
       </c>
       <c r="G46" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>252</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>46</v>
@@ -4740,13 +4553,13 @@
         <v>46</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
@@ -4908,16 +4721,16 @@
         <v>199</v>
       </c>
       <c r="F51" s="28">
-        <v>45114</v>
+        <v>45104</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>46</v>
@@ -13087,22 +12900,22 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -13114,13 +12927,13 @@
         <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s">
         <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="T1" t="s">
         <v>49</v>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PolisNet\Sanita\fse\it-fse-accreditamento\GATEWAY\A1#111SIS4CAREXX\POLIS-NET_SRL\SIS4CARE\v1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4E84A-E3F0-4AB8-8FEF-A1526BCC582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33246870-FB94-492B-AF2F-618428F95794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="291">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -976,42 +976,6 @@
     <t>POLIS-NET SRL</t>
   </si>
   <si>
-    <t>e1d12748dcc8a3c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.880c9c99bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-23T16:53:40Z</t>
-  </si>
-  <si>
-    <t>2023-06-26T17:51:40Z</t>
-  </si>
-  <si>
-    <t>eadbe6c86d4a3a7b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.fba176cec5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-27T11:31:10Z</t>
-  </si>
-  <si>
-    <t>cd25a03c2c0c7a19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.8f04798be6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0e67fa6947a19285</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.84bc5e90d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-27T11:38:22Z</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
@@ -1203,15 +1167,6 @@
     <t>2023-06-27T17:51:40Z</t>
   </si>
   <si>
-    <t>2023-06-27T18:02:29Z</t>
-  </si>
-  <si>
-    <t>4a81f5de48148536</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.48af7c2c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>La riservatezza del documento non viene definita dall'utente e quindi l'errore non può essere riprodotto</t>
   </si>
   <si>
@@ -1228,6 +1183,78 @@
   </si>
   <si>
     <t>L'applicativo ripete la chiamata al servizio di validazione ad intervalli regolari finchè non riceve lo status 201 come risposta.</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:24:40Z</t>
+  </si>
+  <si>
+    <t>c67ed7f753b1862b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0fdb7f45a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:31:40Z</t>
+  </si>
+  <si>
+    <t>21e78ef17f69c79c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6464963d8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-04T18:33:31Z</t>
+  </si>
+  <si>
+    <t>42ddaacbf188e80a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d1e1dab0e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T10:33:12Z</t>
+  </si>
+  <si>
+    <t>c616ced99760525b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.9142d9255c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T11:04:01Z</t>
+  </si>
+  <si>
+    <t>985c06f953307a52</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.1c0c094857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>93abf6a4890959e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.c8ff0a3948^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T16:28:50Z</t>
+  </si>
+  <si>
+    <t>2023-07-07T17:36:00Z</t>
+  </si>
+  <si>
+    <t>f0b6469345aac083</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.a5ce9aa251^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-07T17:44:07Z</t>
+  </si>
+  <si>
+    <t>83d331826ef2a2be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4e181d744702b6d7d921597e1fb886122e5313dca0d2d59233ab406f4ccd39e.07f77f6030^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,12 +1348,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1512,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,34 +1631,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,6 +2109,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED629B79-D92E-7AA4-1663-45E31187106F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3318858A-DC35-C344-F3F4-F2C3A7AA0E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B71FDA-0AB5-ADC3-1521-0BB709234793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10687050" cy="23917275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2633,10 +2788,10 @@
   <dimension ref="A1:T580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,14 +2834,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2704,14 +2859,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2729,12 +2884,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2753,12 +2908,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="40"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2776,8 +2931,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -2911,16 +3066,16 @@
         <v>112</v>
       </c>
       <c r="F10" s="28">
-        <v>45100</v>
+        <v>45114</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>46</v>
@@ -2955,16 +3110,16 @@
         <v>114</v>
       </c>
       <c r="F11" s="28">
-        <v>45103</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>204</v>
+        <v>45114</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>46</v>
@@ -2999,16 +3154,16 @@
         <v>116</v>
       </c>
       <c r="F12" s="28">
-        <v>45104</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>207</v>
+        <v>45114</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>46</v>
@@ -3043,16 +3198,16 @@
         <v>118</v>
       </c>
       <c r="F13" s="28">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>46</v>
@@ -3090,13 +3245,13 @@
         <v>45104</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>46</v>
@@ -3109,13 +3264,13 @@
         <v>46</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
@@ -3144,13 +3299,13 @@
         <v>45104</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>46</v>
@@ -3163,13 +3318,13 @@
         <v>46</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="31"/>
@@ -3209,13 +3364,13 @@
         <v>46</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O16" s="30" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="31" t="s">
@@ -3246,13 +3401,13 @@
         <v>45104</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>46</v>
@@ -3265,13 +3420,13 @@
         <v>46</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="31"/>
@@ -3300,13 +3455,13 @@
         <v>45104</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>46</v>
@@ -3319,13 +3474,13 @@
         <v>46</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O18" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="31"/>
@@ -3358,7 +3513,7 @@
         <v>47</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -3396,7 +3551,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3430,13 +3585,13 @@
         <v>45104</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>46</v>
@@ -3449,13 +3604,13 @@
         <v>46</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="30"/>
       <c r="R21" s="31"/>
@@ -3484,13 +3639,13 @@
         <v>45104</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>46</v>
@@ -3503,13 +3658,13 @@
         <v>46</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O22" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="31"/>
@@ -3538,13 +3693,13 @@
         <v>45104</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>46</v>
@@ -3557,13 +3712,13 @@
         <v>46</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
@@ -3592,13 +3747,13 @@
         <v>45104</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>46</v>
@@ -3611,13 +3766,13 @@
         <v>46</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q24" s="30"/>
       <c r="R24" s="31"/>
@@ -3646,13 +3801,13 @@
         <v>45104</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>46</v>
@@ -3665,13 +3820,13 @@
         <v>46</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O25" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
@@ -3700,13 +3855,13 @@
         <v>45104</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>46</v>
@@ -3719,13 +3874,13 @@
         <v>46</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="31"/>
@@ -3754,13 +3909,13 @@
         <v>45104</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>46</v>
@@ -3773,13 +3928,13 @@
         <v>46</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q27" s="30"/>
       <c r="R27" s="31"/>
@@ -3808,13 +3963,13 @@
         <v>45104</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>46</v>
@@ -3827,13 +3982,13 @@
         <v>46</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
@@ -3862,13 +4017,13 @@
         <v>45104</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>46</v>
@@ -4042,13 +4197,13 @@
         <v>45104</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>46</v>
@@ -4061,13 +4216,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O34" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="30"/>
       <c r="R34" s="31"/>
@@ -4096,13 +4251,13 @@
         <v>45104</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>46</v>
@@ -4115,13 +4270,13 @@
         <v>46</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="30"/>
       <c r="R35" s="31"/>
@@ -4150,7 +4305,7 @@
         <v>45104</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -4158,7 +4313,7 @@
         <v>47</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -4192,10 +4347,10 @@
         <v>45104</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="30" t="s">
@@ -4209,12 +4364,14 @@
         <v>46</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="30"/>
+      <c r="P37" s="30" t="s">
+        <v>266</v>
+      </c>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
@@ -4222,105 +4379,135 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+    <row r="38" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
         <v>217</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43" t="s">
+      <c r="F38" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+    <row r="39" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>218</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43" t="s">
+      <c r="F39" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="44" customFormat="1" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+    <row r="40" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
         <v>219</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43" t="s">
+      <c r="F40" s="28">
+        <v>45111</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4480,13 +4667,13 @@
         <v>45105</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>46</v>
@@ -4499,13 +4686,13 @@
         <v>46</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O45" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
@@ -4534,13 +4721,13 @@
         <v>45105</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>46</v>
@@ -4553,13 +4740,13 @@
         <v>46</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
@@ -4721,16 +4908,16 @@
         <v>199</v>
       </c>
       <c r="F51" s="28">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>46</v>
@@ -12900,22 +13087,22 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -12927,13 +13114,13 @@
         <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O1" t="s">
         <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="T1" t="s">
         <v>49</v>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="593">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -295,6 +295,22 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
     <r>
@@ -347,15 +363,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
-  </si>
-  <si>
     <t xml:space="preserve">03-12-2025 20:15:01</t>
   </si>
   <si>
@@ -1791,16 +1798,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-12-2025 11:52:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2025T11:52:15Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809ab4d753c85f58bc3b866ec7f4ae68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.25a5a0f75a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">07-01-2026 18:23:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01-2026T18:23:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce7cc37064946fc89e8c8601947310cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.17404e1cde^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1810,16 +1817,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-12-2025 12:26:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2025T12:26:50Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee7535fea1afa34c5ff2c488ec950367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.578d551df2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">07-01-2026 18:26:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01-2026T18:26:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89dbf4dc50e3d83b4f2d7fbf2baefcec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.19d0c13dcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1829,16 +1836,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-12-2025 12:45:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2025T12:45:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1efbf23c7d51ed0f10b2984abed2e5f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.5f88f520ff902e049233957cdcce37c27fb2e03fcfe90d06666477e923e6a25b.ab3bfe5b36^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">07-01-2026 18:45:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01-2026T18:45:23Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be5ef12393bf56fe7c8aa50d5343faf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.5f88f520ff902e049233957cdcce37c27fb2e03fcfe90d06666477e923e6a25b.1812b5205b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT18</t>
@@ -1848,16 +1855,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-12-2025 12:47:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2025T12:47:13Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4fc4e6c9e79c121cfb164ad1dc0e0153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.5f88f520ff902e049233957cdcce37c27fb2e03fcfe90d06666477e923e6a25b.10b60158c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">07-01-2026 18:49:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01-2026T18:49:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68f2ef90e32a8035c627a775c292fd65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.5f88f520ff902e049233957cdcce37c27fb2e03fcfe90d06666477e923e6a25b.7257cf4754^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT17</t>
@@ -2181,7 +2188,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2316,12 +2323,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2525,7 +2526,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2742,14 +2743,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2758,7 +2751,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4264,11 +4257,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G169" activeCellId="0" sqref="G169"/>
+      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
+      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4645,45 +4638,45 @@
         <v>56</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O12" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="37" t="s">
-        <v>61</v>
-      </c>
       <c r="Q12" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T12" s="37"/>
       <c r="U12" s="38"/>
@@ -4700,13 +4693,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -4737,13 +4730,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -4774,51 +4767,51 @@
         <v>47</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O15" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="37" t="s">
-        <v>61</v>
-      </c>
       <c r="Q15" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R15" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" s="37"/>
       <c r="U15" s="38"/>
@@ -4835,13 +4828,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -4872,13 +4865,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -4909,13 +4902,13 @@
         <v>47</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -4949,10 +4942,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -4986,48 +4979,48 @@
         <v>55</v>
       </c>
       <c r="D20" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S20" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T20" s="37"/>
       <c r="U20" s="38"/>
@@ -5044,13 +5037,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5081,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5118,51 +5111,51 @@
         <v>47</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S23" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T23" s="37"/>
       <c r="U23" s="38"/>
@@ -5179,13 +5172,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -5216,13 +5209,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -5253,13 +5246,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -5293,10 +5286,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -5314,7 +5307,7 @@
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="37" t="s">
@@ -5332,44 +5325,44 @@
         <v>55</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="42"/>
       <c r="J28" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S28" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T28" s="37"/>
       <c r="U28" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28" s="37" t="s">
@@ -5384,13 +5377,13 @@
         <v>47</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -5408,7 +5401,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29" s="37" t="s">
@@ -5423,13 +5416,13 @@
         <v>47</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -5447,7 +5440,7 @@
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V30" s="39"/>
       <c r="W30" s="37" t="s">
@@ -5462,47 +5455,47 @@
         <v>47</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="47"/>
       <c r="I31" s="42"/>
       <c r="J31" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P31" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R31" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S31" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T31" s="37"/>
       <c r="U31" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V31" s="39"/>
       <c r="W31" s="37" t="s">
@@ -5517,13 +5510,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -5541,7 +5534,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32" s="37" t="s">
@@ -5556,13 +5549,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -5580,7 +5573,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V33" s="39"/>
       <c r="W33" s="37" t="s">
@@ -5595,13 +5588,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -5619,7 +5612,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V34" s="39"/>
       <c r="W34" s="37" t="s">
@@ -5637,10 +5630,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -5674,10 +5667,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -5711,10 +5704,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -5748,10 +5741,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -5785,10 +5778,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -5822,10 +5815,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -5859,10 +5852,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -5896,10 +5889,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -5933,48 +5926,48 @@
         <v>55</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P43" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R43" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T43" s="37"/>
       <c r="U43" s="38"/>
@@ -5994,48 +5987,48 @@
         <v>55</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P44" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R44" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S44" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T44" s="37"/>
       <c r="U44" s="38"/>
@@ -6055,48 +6048,48 @@
         <v>55</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S45" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T45" s="37"/>
       <c r="U45" s="38"/>
@@ -6116,48 +6109,48 @@
         <v>55</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
       <c r="M46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O46" s="44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R46" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S46" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T46" s="37"/>
       <c r="U46" s="38"/>
@@ -6177,48 +6170,48 @@
         <v>55</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
       <c r="M47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O47" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R47" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S47" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T47" s="37"/>
       <c r="U47" s="38"/>
@@ -6238,48 +6231,48 @@
         <v>55</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O48" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R48" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S48" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T48" s="37"/>
       <c r="U48" s="38"/>
@@ -6299,48 +6292,48 @@
         <v>55</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
       <c r="M49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O49" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R49" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S49" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T49" s="37"/>
       <c r="U49" s="38"/>
@@ -6360,48 +6353,48 @@
         <v>55</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
       <c r="M50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O50" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R50" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S50" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T50" s="37"/>
       <c r="U50" s="38"/>
@@ -6421,48 +6414,48 @@
         <v>55</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
       <c r="M51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O51" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R51" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S51" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T51" s="37"/>
       <c r="U51" s="38"/>
@@ -6482,48 +6475,48 @@
         <v>55</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O52" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R52" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S52" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T52" s="37"/>
       <c r="U52" s="38"/>
@@ -6540,13 +6533,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -6577,13 +6570,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -6614,13 +6607,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -6651,13 +6644,13 @@
         <v>47</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -6688,13 +6681,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -6725,13 +6718,13 @@
         <v>47</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -6762,13 +6755,13 @@
         <v>47</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -6799,13 +6792,13 @@
         <v>47</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -6836,13 +6829,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -6873,13 +6866,13 @@
         <v>47</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
@@ -6910,13 +6903,13 @@
         <v>47</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -6947,13 +6940,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
@@ -6984,13 +6977,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -7021,13 +7014,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -7058,13 +7051,13 @@
         <v>47</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -7095,13 +7088,13 @@
         <v>47</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -7132,13 +7125,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -7169,13 +7162,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
@@ -7206,13 +7199,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
@@ -7243,13 +7236,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
@@ -7280,13 +7273,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -7317,13 +7310,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
@@ -7354,13 +7347,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
@@ -7391,13 +7384,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
@@ -7428,13 +7421,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -7465,13 +7458,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -7502,13 +7495,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
@@ -7539,13 +7532,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -7576,13 +7569,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
@@ -7613,13 +7606,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -7650,13 +7643,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
@@ -7687,13 +7680,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
@@ -7724,13 +7717,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
@@ -7761,13 +7754,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
@@ -7798,13 +7791,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
@@ -7835,13 +7828,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
@@ -7872,13 +7865,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
@@ -7909,13 +7902,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
@@ -7946,13 +7939,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
@@ -7983,13 +7976,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
@@ -8020,13 +8013,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
@@ -8057,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
@@ -8094,13 +8087,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
@@ -8131,13 +8124,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
@@ -8168,13 +8161,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
@@ -8205,13 +8198,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
@@ -8242,13 +8235,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -8279,13 +8272,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -8316,13 +8309,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -8353,13 +8346,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -8390,13 +8383,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -8427,13 +8420,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -8464,13 +8457,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -8501,13 +8494,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
@@ -8538,13 +8531,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
@@ -8575,13 +8568,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
@@ -8612,13 +8605,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -8649,13 +8642,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -8686,13 +8679,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
@@ -8723,13 +8716,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
@@ -8760,13 +8753,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
@@ -8797,13 +8790,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
@@ -8834,13 +8827,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="36"/>
@@ -8871,51 +8864,51 @@
         <v>47</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H116" s="46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I116" s="50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J116" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K116" s="37"/>
       <c r="L116" s="37"/>
       <c r="M116" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N116" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O116" s="51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P116" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q116" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R116" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S116" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T116" s="37"/>
       <c r="U116" s="38"/>
@@ -8932,51 +8925,51 @@
         <v>47</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F117" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H117" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I117" s="50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J117" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K117" s="37"/>
       <c r="L117" s="37"/>
       <c r="M117" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N117" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O117" s="52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P117" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q117" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R117" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S117" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T117" s="37"/>
       <c r="U117" s="38"/>
@@ -8993,51 +8986,51 @@
         <v>47</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H118" s="53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I118" s="43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J118" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K118" s="37"/>
       <c r="L118" s="37"/>
       <c r="M118" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N118" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O118" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P118" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q118" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R118" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S118" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T118" s="37"/>
       <c r="U118" s="38"/>
@@ -9054,51 +9047,51 @@
         <v>47</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I119" s="44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J119" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K119" s="37"/>
       <c r="L119" s="37"/>
       <c r="M119" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N119" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O119" s="44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P119" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q119" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R119" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S119" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T119" s="37"/>
       <c r="U119" s="38"/>
@@ -9115,51 +9108,51 @@
         <v>47</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H120" s="53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I120" s="44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J120" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K120" s="37"/>
       <c r="L120" s="37"/>
       <c r="M120" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N120" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O120" s="49" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P120" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q120" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R120" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S120" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T120" s="37"/>
       <c r="U120" s="38"/>
@@ -9176,51 +9169,51 @@
         <v>47</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F121" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I121" s="44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J121" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K121" s="37"/>
       <c r="L121" s="37"/>
       <c r="M121" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N121" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O121" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P121" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q121" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R121" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S121" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T121" s="37"/>
       <c r="U121" s="38"/>
@@ -9237,51 +9230,51 @@
         <v>47</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H122" s="53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I122" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J122" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K122" s="37"/>
       <c r="L122" s="37"/>
       <c r="M122" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N122" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O122" s="49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P122" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q122" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R122" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S122" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T122" s="37"/>
       <c r="U122" s="38"/>
@@ -9298,51 +9291,51 @@
         <v>47</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H123" s="53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I123" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J123" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K123" s="37"/>
       <c r="L123" s="37"/>
       <c r="M123" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N123" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O123" s="44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P123" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q123" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R123" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S123" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T123" s="37"/>
       <c r="U123" s="38"/>
@@ -9359,51 +9352,51 @@
         <v>47</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H124" s="53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I124" s="44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J124" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K124" s="37"/>
       <c r="L124" s="37"/>
       <c r="M124" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N124" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O124" s="44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P124" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q124" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R124" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S124" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T124" s="37"/>
       <c r="U124" s="38"/>
@@ -9420,23 +9413,23 @@
         <v>47</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
       <c r="H125" s="47"/>
       <c r="I125" s="42"/>
       <c r="J125" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K125" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L125" s="37"/>
       <c r="M125" s="37"/>
@@ -9461,23 +9454,23 @@
         <v>47</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
       <c r="H126" s="47"/>
       <c r="I126" s="42"/>
       <c r="J126" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K126" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L126" s="37"/>
       <c r="M126" s="37"/>
@@ -9502,23 +9495,23 @@
         <v>47</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
       <c r="H127" s="47"/>
       <c r="I127" s="42"/>
       <c r="J127" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K127" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L127" s="37"/>
       <c r="M127" s="37"/>
@@ -9543,23 +9536,23 @@
         <v>47</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
       <c r="H128" s="47"/>
       <c r="I128" s="42"/>
       <c r="J128" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K128" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L128" s="37"/>
       <c r="M128" s="37"/>
@@ -9584,51 +9577,51 @@
         <v>47</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I129" s="44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K129" s="37"/>
       <c r="L129" s="37"/>
       <c r="M129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O129" s="44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R129" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S129" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T129" s="37"/>
       <c r="U129" s="38"/>
@@ -9645,51 +9638,51 @@
         <v>47</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H130" s="44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I130" s="44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J130" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K130" s="37"/>
       <c r="L130" s="37"/>
       <c r="M130" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N130" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O130" s="44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P130" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q130" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R130" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S130" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T130" s="37"/>
       <c r="U130" s="38"/>
@@ -9706,13 +9699,13 @@
         <v>47</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
@@ -9743,13 +9736,13 @@
         <v>47</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="36"/>
@@ -9780,13 +9773,13 @@
         <v>47</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
@@ -9817,13 +9810,13 @@
         <v>47</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="36"/>
@@ -9854,13 +9847,13 @@
         <v>47</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="36"/>
@@ -9891,13 +9884,13 @@
         <v>47</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E136" s="34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="36"/>
@@ -9928,13 +9921,13 @@
         <v>47</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E137" s="34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="36"/>
@@ -9965,13 +9958,13 @@
         <v>47</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="36"/>
@@ -10002,13 +9995,13 @@
         <v>47</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="36"/>
@@ -10039,13 +10032,13 @@
         <v>47</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
@@ -10076,13 +10069,13 @@
         <v>47</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="36"/>
@@ -10113,13 +10106,13 @@
         <v>47</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F142" s="36"/>
       <c r="G142" s="36"/>
@@ -10150,13 +10143,13 @@
         <v>47</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F143" s="36"/>
       <c r="G143" s="36"/>
@@ -10187,13 +10180,13 @@
         <v>47</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
@@ -10224,13 +10217,13 @@
         <v>47</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
@@ -10264,10 +10257,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
@@ -10301,10 +10294,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
@@ -10335,13 +10328,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="36"/>
@@ -10372,13 +10365,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E149" s="34" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="36"/>
@@ -10409,13 +10402,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F150" s="36"/>
       <c r="G150" s="36"/>
@@ -10446,13 +10439,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F151" s="36"/>
       <c r="G151" s="36"/>
@@ -10483,13 +10476,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
@@ -10520,13 +10513,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F153" s="36"/>
       <c r="G153" s="36"/>
@@ -10557,13 +10550,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F154" s="36"/>
       <c r="G154" s="36"/>
@@ -10594,13 +10587,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="36"/>
@@ -10631,13 +10624,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
@@ -10668,13 +10661,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="36"/>
@@ -10705,13 +10698,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="36"/>
@@ -10742,13 +10735,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="36"/>
@@ -10779,13 +10772,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F160" s="36"/>
       <c r="G160" s="36"/>
@@ -10816,13 +10809,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="36"/>
@@ -10853,13 +10846,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
@@ -10890,13 +10883,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E163" s="34" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F163" s="36"/>
       <c r="G163" s="36"/>
@@ -10927,13 +10920,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="36"/>
@@ -10964,13 +10957,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E165" s="34" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F165" s="36"/>
       <c r="G165" s="36"/>
@@ -10993,7 +10986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="33" t="n">
         <v>448</v>
       </c>
@@ -11001,28 +10994,28 @@
         <v>47</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F166" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="G166" s="54" t="s">
         <v>475</v>
       </c>
+      <c r="G166" s="36" t="s">
+        <v>476</v>
+      </c>
       <c r="H166" s="51" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I166" s="51" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J166" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K166" s="37"/>
       <c r="L166" s="37"/>
@@ -11040,7 +11033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="33" t="n">
         <v>449</v>
       </c>
@@ -11048,28 +11041,28 @@
         <v>47</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F167" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="G167" s="54" t="s">
+      <c r="F167" s="36" t="s">
         <v>481</v>
       </c>
+      <c r="G167" s="36" t="s">
+        <v>482</v>
+      </c>
       <c r="H167" s="51" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I167" s="51" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J167" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K167" s="37"/>
       <c r="L167" s="37"/>
@@ -11087,7 +11080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33" t="n">
         <v>450</v>
       </c>
@@ -11098,25 +11091,25 @@
         <v>55</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="F168" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="G168" s="54" t="s">
+      <c r="F168" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="H168" s="55" t="s">
+      <c r="G168" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="I168" s="55" t="s">
+      <c r="H168" s="44" t="s">
         <v>489</v>
       </c>
+      <c r="I168" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="J168" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K168" s="37"/>
       <c r="L168" s="37"/>
@@ -11134,7 +11127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="33" t="n">
         <v>451</v>
       </c>
@@ -11145,25 +11138,25 @@
         <v>55</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="F169" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="G169" s="54" t="s">
+      <c r="F169" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="H169" s="55" t="s">
+      <c r="G169" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="I169" s="55" t="s">
+      <c r="H169" s="51" t="s">
         <v>495</v>
       </c>
+      <c r="I169" s="51" t="s">
+        <v>496</v>
+      </c>
       <c r="J169" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K169" s="37"/>
       <c r="L169" s="37"/>
@@ -11192,10 +11185,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F170" s="36"/>
       <c r="G170" s="36"/>
@@ -11226,13 +11219,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F171" s="36"/>
       <c r="G171" s="36"/>
@@ -11263,13 +11256,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
@@ -11300,13 +11293,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
@@ -11337,13 +11330,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F174" s="36"/>
       <c r="G174" s="36"/>
@@ -11374,13 +11367,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F175" s="36"/>
       <c r="G175" s="36"/>
@@ -11411,13 +11404,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
@@ -11448,13 +11441,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
@@ -11485,23 +11478,23 @@
         <v>47</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
-      <c r="H178" s="56"/>
+      <c r="H178" s="54"/>
       <c r="I178" s="33"/>
       <c r="J178" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K178" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="37"/>
@@ -11526,13 +11519,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -11563,13 +11556,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -11600,13 +11593,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
@@ -11637,13 +11630,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -11677,10 +11670,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
@@ -11714,48 +11707,48 @@
         <v>55</v>
       </c>
       <c r="D184" s="33" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E184" s="34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F184" s="36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G184" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H184" s="44" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I184" s="44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K184" s="37"/>
       <c r="L184" s="33"/>
       <c r="M184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O184" s="44" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R184" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S184" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T184" s="37"/>
       <c r="U184" s="33"/>
@@ -11772,51 +11765,51 @@
         <v>47</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E185" s="34" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F185" s="36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H185" s="44" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I185" s="44" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K185" s="37"/>
       <c r="L185" s="33"/>
       <c r="M185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O185" s="44" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R185" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S185" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T185" s="37"/>
       <c r="U185" s="33"/>
@@ -11833,13 +11826,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D186" s="33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E186" s="34" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -11870,13 +11863,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -11907,13 +11900,13 @@
         <v>47</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F188" s="36"/>
       <c r="G188" s="36"/>
@@ -11944,13 +11937,13 @@
         <v>47</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E189" s="34" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="36"/>
@@ -11984,10 +11977,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="36"/>
@@ -12018,13 +12011,13 @@
         <v>47</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="36"/>
@@ -12055,51 +12048,51 @@
         <v>47</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F192" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G192" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H192" s="51" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J192" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K192" s="37"/>
       <c r="L192" s="37"/>
       <c r="M192" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N192" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O192" s="44" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P192" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q192" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R192" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S192" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T192" s="37"/>
       <c r="U192" s="38"/>
@@ -16191,42 +16184,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -16265,170 +16258,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>563</v>
+      <c r="A1" s="55" t="s">
+        <v>564</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="F1" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="56" t="s">
         <v>567</v>
       </c>
+      <c r="G1" s="57" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>570</v>
       </c>
+      <c r="D2" s="60" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>571</v>
-      </c>
-      <c r="D3" s="62" t="s">
+      <c r="B3" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>572</v>
       </c>
+      <c r="D3" s="60" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="D4" s="63" t="s">
+      <c r="A4" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>574</v>
       </c>
+      <c r="D4" s="61" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="A5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>576</v>
       </c>
+      <c r="D5" s="60" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>577</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="A6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>578</v>
       </c>
+      <c r="D6" s="61" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="A7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>580</v>
       </c>
+      <c r="D7" s="61" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>581</v>
-      </c>
-      <c r="D8" s="63" t="s">
+      <c r="A8" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>582</v>
       </c>
+      <c r="D8" s="61" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>583</v>
-      </c>
-      <c r="D9" s="63" t="s">
+      <c r="A9" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>584</v>
       </c>
+      <c r="D9" s="61" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
-        <v>585</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="64" t="s">
+      <c r="A10" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="B10" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>587</v>
       </c>
+      <c r="D10" s="60" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>588</v>
-      </c>
-      <c r="D11" s="63" t="s">
+      <c r="A11" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>589</v>
       </c>
+      <c r="D11" s="61" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="65"/>
+      <c r="D12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="65"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17418,18 +17411,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -1798,16 +1798,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">07-01-2026 18:23:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-01-2026T18:23:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce7cc37064946fc89e8c8601947310cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.17404e1cde^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">09-01-2026 17:46:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-01-2026T17:46:13Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ed669e2a82d063c42b422355b720229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.f4d3274230^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -4257,11 +4257,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
-      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I166" activeCellId="0" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/report-checklist.xlsx
@@ -1798,16 +1798,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">09-01-2026 17:46:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-01-2026T17:46:13Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3ed669e2a82d063c42b422355b720229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.f4d3274230^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">12-01-2026 18:04:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-01-2026T18:04:17Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0bbf3fd9c19c5e3019ffd97f74acb8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120203.4.4.239a9d12dd33dde51e9b44d7d88180c61eab34a50ab6bc7a4bc3da3c4744792d.87ed481c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -4261,7 +4261,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I166" activeCellId="0" sqref="I166"/>
+      <selection pane="bottomRight" activeCell="G166" activeCellId="0" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
